--- a/src/main/resources/excel/good/medicine.xlsx
+++ b/src/main/resources/excel/good/medicine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F874BE56-C393-4B44-A2AA-981411A5F727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E658F295-507D-4D1D-AF93-BD7560348FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="1944" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,26 @@
   </si>
   <si>
     <t>maxStacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充100点血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充100点蓝量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续5秒，补充200点血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续5秒，补充200点蓝量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,15 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +439,11 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -436,8 +462,11 @@
       <c r="F2">
         <v>99</v>
       </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -456,8 +485,11 @@
       <c r="F3">
         <v>99</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -476,8 +508,11 @@
       <c r="F4">
         <v>99</v>
       </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -495,6 +530,9 @@
       </c>
       <c r="F5">
         <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/good/medicine.xlsx
+++ b/src/main/resources/excel/good/medicine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E658F295-507D-4D1D-AF93-BD7560348FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0705B697-ECD7-4E89-8324-119CED20BC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="1248" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>持续5秒，补充200点蓝量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,9 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -422,25 +420,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -448,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -463,7 +461,7 @@
         <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -486,7 +484,7 @@
         <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -494,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -509,7 +507,7 @@
         <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -532,7 +530,7 @@
         <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/good/medicine.xlsx
+++ b/src/main/resources/excel/good/medicine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0705B697-ECD7-4E89-8324-119CED20BC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B5C02-A5A9-47B9-97DB-FFC6CC418BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="1248" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6576" yWindow="2748" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>goodId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,16 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -438,10 +444,13 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,11 +469,14 @@
       <c r="F2">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
         <v>10</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -483,11 +495,14 @@
       <c r="F3">
         <v>99</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -506,11 +521,14 @@
       <c r="F4">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -529,7 +547,10 @@
       <c r="F5">
         <v>99</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/main/resources/excel/good/medicine.xlsx
+++ b/src/main/resources/excel/good/medicine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B5C02-A5A9-47B9-97DB-FFC6CC418BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19ECABF-7283-4C2F-BF66-BEB284936137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6576" yWindow="2748" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3708" yWindow="2640" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,19 +75,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续5秒，补充200点血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续5秒，补充200点蓝量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goodId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plusAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加30点攻击力，持续500秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plusDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加30点防御力，持续500秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续5秒，每秒补充40点血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续5秒，每秒补充40点蓝量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,20 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -438,19 +471,31 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -467,16 +512,28 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>99</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -493,16 +550,28 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>99</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -510,25 +579,37 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>99</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
+      <c r="L4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -539,19 +620,107 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>99</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <v>99</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/good/medicine.xlsx
+++ b/src/main/resources/excel/good/medicine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19ECABF-7283-4C2F-BF66-BEB284936137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B26EB86-DFF2-4A9E-B752-89B68E18F7E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2640" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="1488" windowWidth="14832" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxStacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,10 @@
   </si>
   <si>
     <t>持续5秒，每秒补充40点蓝量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxStack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,18 +448,19 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="6" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="12" max="12" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -471,28 +472,28 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -530,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -568,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -606,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -644,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -652,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -682,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -690,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -720,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
